--- a/documents/مستندات/مستندات میکروسرویس ها.xlsx
+++ b/documents/مستندات/مستندات میکروسرویس ها.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farhang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farhang\Desktop\codes\open\github\cms\backend\documents\مستندات\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF7ECC-D1B1-48B6-AE35-D0B516E77C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CF57C3-CD57-41DC-B228-5AF3863ED3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8CCD3AED-A7F7-4C88-9D4C-8F85A918BC23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="158">
   <si>
     <t>no</t>
   </si>
@@ -480,6 +480,68 @@
   </si>
   <si>
     <t>مدیریت دسته بندی ها</t>
+  </si>
+  <si>
+    <t>Datapack</t>
+  </si>
+  <si>
+    <t>Manager Operator</t>
+  </si>
+  <si>
+    <t>datapack.reload</t>
+  </si>
+  <si>
+    <t>Admin Author</t>
+  </si>
+  <si>
+    <t>content : [ ]
+bottomsheet : [ ]</t>
+  </si>
+  <si>
+    <t>datapack.create</t>
+  </si>
+  <si>
+    <t>ذخیره یک دیتاپک</t>
+  </si>
+  <si>
+    <t>datapack.list</t>
+  </si>
+  <si>
+    <t>فهرست همه ی دیتاپک های ذخیره شده</t>
+  </si>
+  <si>
+    <t>id : string</t>
+  </si>
+  <si>
+    <t>datapack.delete</t>
+  </si>
+  <si>
+    <t>حذف یک دیتاپک</t>
+  </si>
+  <si>
+    <t>datapack.get</t>
+  </si>
+  <si>
+    <t>گرفتن یک دیتاپک</t>
+  </si>
+  <si>
+    <t>content? : [ ]
+bottomsheet? : [ ]</t>
+  </si>
+  <si>
+    <t>datapack.update</t>
+  </si>
+  <si>
+    <t>ویرایش یک دیتاپک ذخیره شده</t>
+  </si>
+  <si>
+    <t>namespace/:namespace</t>
+  </si>
+  <si>
+    <t>datapack.namespace</t>
+  </si>
+  <si>
+    <t>فهرست دیتاپک های یک فضای نام</t>
   </si>
 </sst>
 </file>
@@ -611,16 +673,16 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,30 +1021,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1146,30 +1208,30 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
@@ -1334,14 +1396,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1371,30 +1433,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1650,30 +1712,30 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -1808,47 +1870,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC3DF2-C264-477D-9F44-5C712A6C7C67}">
-  <dimension ref="B3:H22"/>
+  <dimension ref="B3:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="18.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1892,7 +1954,7 @@
       <c r="G6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1915,7 +1977,7 @@
       <c r="G7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1938,7 +2000,7 @@
       <c r="G8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1961,7 +2023,7 @@
       <c r="G9" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1984,7 +2046,7 @@
       <c r="G10" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2007,53 +2069,53 @@
       <c r="G11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -2097,7 +2159,7 @@
       <c r="G17" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2120,7 +2182,7 @@
       <c r="G18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2143,7 +2205,7 @@
       <c r="G19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2166,7 +2228,7 @@
       <c r="G20" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2189,7 +2251,7 @@
       <c r="G21" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2212,12 +2274,226 @@
       <c r="G22" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="25" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="39" x14ac:dyDescent="0.2">
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="9">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="39" x14ac:dyDescent="0.2">
+      <c r="B33" s="9">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="9">
+        <v>7</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B3:E3"/>
@@ -2228,5 +2504,6 @@
     <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/مستندات/مستندات میکروسرویس ها.xlsx
+++ b/documents/مستندات/مستندات میکروسرویس ها.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farhang\Desktop\codes\open\github\cms\backend\documents\مستندات\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CF57C3-CD57-41DC-B228-5AF3863ED3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F751D6B9-1B19-4776-9B10-0E3A835FFDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8CCD3AED-A7F7-4C88-9D4C-8F85A918BC23}"/>
   </bookViews>
@@ -494,54 +494,54 @@
     <t>Admin Author</t>
   </si>
   <si>
+    <t>datapack.create</t>
+  </si>
+  <si>
+    <t>ذخیره یک دیتاپک</t>
+  </si>
+  <si>
+    <t>datapack.list</t>
+  </si>
+  <si>
+    <t>فهرست همه ی دیتاپک های ذخیره شده</t>
+  </si>
+  <si>
+    <t>id : string</t>
+  </si>
+  <si>
+    <t>datapack.delete</t>
+  </si>
+  <si>
+    <t>حذف یک دیتاپک</t>
+  </si>
+  <si>
+    <t>datapack.get</t>
+  </si>
+  <si>
+    <t>گرفتن یک دیتاپک</t>
+  </si>
+  <si>
+    <t>datapack.update</t>
+  </si>
+  <si>
+    <t>ویرایش یک دیتاپک ذخیره شده</t>
+  </si>
+  <si>
+    <t>namespace/:namespace</t>
+  </si>
+  <si>
+    <t>datapack.namespace</t>
+  </si>
+  <si>
+    <t>فهرست دیتاپک های یک فضای نام</t>
+  </si>
+  <si>
+    <t>content? : [ ]
+env? : any</t>
+  </si>
+  <si>
     <t>content : [ ]
-bottomsheet : [ ]</t>
-  </si>
-  <si>
-    <t>datapack.create</t>
-  </si>
-  <si>
-    <t>ذخیره یک دیتاپک</t>
-  </si>
-  <si>
-    <t>datapack.list</t>
-  </si>
-  <si>
-    <t>فهرست همه ی دیتاپک های ذخیره شده</t>
-  </si>
-  <si>
-    <t>id : string</t>
-  </si>
-  <si>
-    <t>datapack.delete</t>
-  </si>
-  <si>
-    <t>حذف یک دیتاپک</t>
-  </si>
-  <si>
-    <t>datapack.get</t>
-  </si>
-  <si>
-    <t>گرفتن یک دیتاپک</t>
-  </si>
-  <si>
-    <t>content? : [ ]
-bottomsheet? : [ ]</t>
-  </si>
-  <si>
-    <t>datapack.update</t>
-  </si>
-  <si>
-    <t>ویرایش یک دیتاپک ذخیره شده</t>
-  </si>
-  <si>
-    <t>namespace/:namespace</t>
-  </si>
-  <si>
-    <t>datapack.namespace</t>
-  </si>
-  <si>
-    <t>فهرست دیتاپک های یک فضای نام</t>
+env? : any</t>
   </si>
 </sst>
 </file>
@@ -679,10 +679,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,30 +1021,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1208,30 +1208,30 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
@@ -1433,30 +1433,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1712,30 +1712,30 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -1873,7 +1873,7 @@
   <dimension ref="B3:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1887,30 +1887,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -2092,30 +2092,30 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -2279,30 +2279,30 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
@@ -2364,13 +2364,13 @@
         <v>141</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2390,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="G30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>141</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2436,10 +2436,10 @@
         <v>6</v>
       </c>
       <c r="G32" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="39" x14ac:dyDescent="0.2">
@@ -2456,13 +2456,13 @@
         <v>141</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2473,35 +2473,35 @@
         <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documents/مستندات/مستندات میکروسرویس ها.xlsx
+++ b/documents/مستندات/مستندات میکروسرویس ها.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farhang\Desktop\codes\open\github\cms\backend\documents\مستندات\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F751D6B9-1B19-4776-9B10-0E3A835FFDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3B0B2-44F4-4D71-9F95-3365852574F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8CCD3AED-A7F7-4C88-9D4C-8F85A918BC23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{8CCD3AED-A7F7-4C88-9D4C-8F85A918BC23}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="165">
   <si>
     <t>no</t>
   </si>
@@ -280,11 +280,6 @@
   </si>
   <si>
     <t>:id</t>
-  </si>
-  <si>
-    <t>name : string
-primaryColor : string
-secoundColor : string</t>
   </si>
   <si>
     <t>namespace.update</t>
@@ -542,6 +537,35 @@
   <si>
     <t>content : [ ]
 env? : any</t>
+  </si>
+  <si>
+    <t>name? : string
+primaryColor? : string
+secoundColor? : string
+datapack? : ObjectID
+avatar? : string</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>name : string
+id : ObjectID</t>
+  </si>
+  <si>
+    <t>namespace.special.get</t>
+  </si>
+  <si>
+    <t>namespace.special.set</t>
+  </si>
+  <si>
+    <t>نام گذاری خاص روی یک فضا</t>
+  </si>
+  <si>
+    <t>گرفتن یک فضا بر پایه نام گذاری خاص</t>
+  </si>
+  <si>
+    <t>special/:name</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1026,7 @@
   <dimension ref="B3:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -1412,19 +1436,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07438EFA-F771-4310-8EF4-C3834B6AF80E}">
-  <dimension ref="B3:H24"/>
+  <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="27.75" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="32.75" customWidth="1"/>
     <col min="13" max="13" width="18.625" customWidth="1"/>
     <col min="14" max="14" width="25.25" customWidth="1"/>
@@ -1619,7 +1643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -1633,13 +1657,13 @@
         <v>34</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1650,19 +1674,19 @@
         <v>7</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1679,13 +1703,13 @@
         <v>34</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1696,172 +1720,218 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+    </row>
+    <row r="16" spans="2:8" ht="39" x14ac:dyDescent="0.2">
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="9">
+    <row r="23" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="9">
-        <v>2</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>6</v>
+      <c r="F23" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="G23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="8" t="s">
+    </row>
+    <row r="26" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="9">
-        <v>4</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1872,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC3DF2-C264-477D-9F44-5C712A6C7C67}">
   <dimension ref="B3:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1901,13 +1971,13 @@
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1940,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>13</v>
@@ -1952,10 +2022,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1963,22 +2033,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="H7" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
@@ -1989,19 +2059,19 @@
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2012,7 +2082,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>6</v>
@@ -2021,10 +2091,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2035,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>6</v>
@@ -2044,10 +2114,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
@@ -2058,19 +2128,19 @@
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2106,13 +2176,13 @@
     </row>
     <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2157,10 +2227,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
@@ -2171,19 +2241,19 @@
         <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2194,7 +2264,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>6</v>
@@ -2203,10 +2273,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2217,7 +2287,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>6</v>
@@ -2226,10 +2296,10 @@
         <v>6</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
@@ -2240,19 +2310,19 @@
         <v>10</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2260,22 +2330,22 @@
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
@@ -2293,13 +2363,13 @@
     </row>
     <row r="26" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -2338,16 +2408,16 @@
         <v>13</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="H28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="39" x14ac:dyDescent="0.2">
@@ -2358,19 +2428,19 @@
         <v>10</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2390,10 +2460,10 @@
         <v>6</v>
       </c>
       <c r="G30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2401,22 +2471,22 @@
         <v>4</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2436,10 +2506,10 @@
         <v>6</v>
       </c>
       <c r="G32" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="39" x14ac:dyDescent="0.2">
@@ -2450,19 +2520,19 @@
         <v>7</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2473,35 +2543,35 @@
         <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documents/مستندات/مستندات میکروسرویس ها.xlsx
+++ b/documents/مستندات/مستندات میکروسرویس ها.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farhang\Desktop\codes\open\github\cms\backend\documents\مستندات\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3B0B2-44F4-4D71-9F95-3365852574F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F292BC-3B67-46C1-A662-772658CF8DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{8CCD3AED-A7F7-4C88-9D4C-8F85A918BC23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{8CCD3AED-A7F7-4C88-9D4C-8F85A918BC23}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="167">
   <si>
     <t>no</t>
   </si>
@@ -233,11 +233,6 @@
     <t>لیست فضای نام های یک کاربر</t>
   </si>
   <si>
-    <t>admin : ObjectID
-name : string
-include : NamespaceType</t>
-  </si>
-  <si>
     <t>namespace.create</t>
   </si>
   <si>
@@ -271,9 +266,6 @@
   </si>
   <si>
     <t>namspace.reload</t>
-  </si>
-  <si>
-    <t>namespace.list</t>
   </si>
   <si>
     <t>فهرست کل فضای نام ها</t>
@@ -531,41 +523,60 @@
     <t>فهرست دیتاپک های یک فضای نام</t>
   </si>
   <si>
-    <t>content? : [ ]
-env? : any</t>
-  </si>
-  <si>
-    <t>content : [ ]
-env? : any</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>name : string
+id : ObjectID</t>
+  </si>
+  <si>
+    <t>نام گذاری خاص روی یک فضا</t>
+  </si>
+  <si>
+    <t>گرفتن یک فضا بر پایه نام گذاری خاص</t>
+  </si>
+  <si>
+    <t>special/:name</t>
+  </si>
+  <si>
+    <t>namespace.all</t>
+  </si>
+  <si>
+    <t>namespace.get.own</t>
+  </si>
+  <si>
+    <t>namespace.set.special</t>
+  </si>
+  <si>
+    <t>namespace.get.special</t>
+  </si>
+  <si>
+    <t>گرفتن یک فضا بر پایه شناسه</t>
   </si>
   <si>
     <t>name? : string
 primaryColor? : string
 secoundColor? : string
 datapack? : ObjectID
-avatar? : string</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>name : string
-id : ObjectID</t>
-  </si>
-  <si>
-    <t>namespace.special.get</t>
-  </si>
-  <si>
-    <t>namespace.special.set</t>
-  </si>
-  <si>
-    <t>نام گذاری خاص روی یک فضا</t>
-  </si>
-  <si>
-    <t>گرفتن یک فضا بر پایه نام گذاری خاص</t>
-  </si>
-  <si>
-    <t>special/:name</t>
+avatar? : string
+description? :string</t>
+  </si>
+  <si>
+    <t>admin : ObjectID
+name : string
+include : NamespaceType
+description: string
+avatar: string</t>
+  </si>
+  <si>
+    <t>content : [ ]
+env? : any
+title : string</t>
+  </si>
+  <si>
+    <t>content? : [ ]
+env? : any
+title? : string</t>
   </si>
 </sst>
 </file>
@@ -662,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,9 +709,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,30 +1053,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1098,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -1232,30 +1240,30 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
@@ -1436,9 +1444,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07438EFA-F771-4310-8EF4-C3834B6AF80E}">
-  <dimension ref="B3:H26"/>
+  <dimension ref="B3:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1457,30 +1465,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1522,13 +1530,13 @@
         <v>6</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -1542,13 +1550,13 @@
         <v>45</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="39" x14ac:dyDescent="0.2">
@@ -1559,19 +1567,19 @@
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="39" x14ac:dyDescent="0.2">
@@ -1582,19 +1590,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1614,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>28</v>
@@ -1637,13 +1645,13 @@
         <v>6</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="117" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>7</v>
       </c>
@@ -1651,19 +1659,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1674,19 +1682,19 @@
         <v>7</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1703,13 +1711,13 @@
         <v>34</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1720,19 +1728,19 @@
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="39" x14ac:dyDescent="0.2">
@@ -1743,19 +1751,19 @@
         <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -1766,7 +1774,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>6</v>
@@ -1775,163 +1783,186 @@
         <v>6</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
+    <row r="24" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="9">
         <v>1</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="9">
-        <v>2</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="9">
         <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="9">
-        <v>4</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>90</v>
+      <c r="F26" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1942,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CC3DF2-C264-477D-9F44-5C712A6C7C67}">
   <dimension ref="B3:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1957,30 +1988,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="B4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -2010,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>13</v>
@@ -2022,10 +2053,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2033,22 +2064,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
@@ -2059,19 +2090,19 @@
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2082,7 +2113,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>6</v>
@@ -2091,10 +2122,10 @@
         <v>6</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2105,7 +2136,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>6</v>
@@ -2114,10 +2145,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
@@ -2128,19 +2159,19 @@
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2162,30 +2193,30 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="B15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -2227,10 +2258,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
@@ -2241,19 +2272,19 @@
         <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2264,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>6</v>
@@ -2273,10 +2304,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2287,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>6</v>
@@ -2296,10 +2327,10 @@
         <v>6</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="97.5" x14ac:dyDescent="0.2">
@@ -2310,19 +2341,19 @@
         <v>10</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>134</v>
+        <v>121</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2330,49 +2361,49 @@
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
@@ -2408,19 +2439,19 @@
         <v>13</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="39" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>2</v>
       </c>
@@ -2428,19 +2459,19 @@
         <v>10</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2460,10 +2491,10 @@
         <v>6</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2471,22 +2502,22 @@
         <v>4</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2497,7 +2528,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>6</v>
@@ -2506,13 +2537,13 @@
         <v>6</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="39" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="58.5" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>6</v>
       </c>
@@ -2520,19 +2551,19 @@
         <v>7</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
@@ -2543,35 +2574,35 @@
         <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
